--- a/Project/Workbook1-First.xlsx
+++ b/Project/Workbook1-First.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d59c8c61b6510a3/Documents/UiPath/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA_Lab\RPA_Lab_151_DevadityaSharma\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{5985C890-3FF5-45E5-8D81-08A5F373EBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC4A9501-A7DF-4543-8BE8-45479E83D85D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B93BD7-4663-4078-A28C-F1DB0B137C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36A2A2E5-D88C-4FAC-BBCA-EDD19649D565}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,54 +25,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Roll Number</t>
-  </si>
-  <si>
-    <t>Email ID</t>
-  </si>
-  <si>
-    <t>Attendance</t>
-  </si>
-  <si>
-    <t>Devaditya</t>
-  </si>
-  <si>
-    <t>2020a1r151</t>
-  </si>
-  <si>
-    <t>2020A1R151@mietjammu.in</t>
-  </si>
-  <si>
-    <t>Himanish</t>
-  </si>
-  <si>
-    <t>2020a1r123</t>
-  </si>
-  <si>
-    <t>Kavya</t>
-  </si>
-  <si>
-    <t>2020A1R123@mietjammu.in</t>
-  </si>
-  <si>
-    <t>2020a1r112</t>
-  </si>
-  <si>
-    <t>2020A1R112@mietjammu.in</t>
+    <t>Roll number</t>
+  </si>
+  <si>
+    <t>email id</t>
+  </si>
+  <si>
+    <t>Attendence</t>
+  </si>
+  <si>
+    <t>Ishav</t>
+  </si>
+  <si>
+    <t>Shivaditya</t>
   </si>
   <si>
     <t>Archit</t>
   </si>
   <si>
-    <t>2020A1R120@mietjammu.in</t>
+    <t>2020a1r160</t>
   </si>
   <si>
     <t>2020a1r120</t>
+  </si>
+  <si>
+    <t>2020a1r147</t>
+  </si>
+  <si>
+    <t>2020a1r160@mietjammu.in</t>
+  </si>
+  <si>
+    <t>2020a1r147@mietjammu.in</t>
+  </si>
+  <si>
+    <t>2020a1r120@mietjammu.in</t>
   </si>
 </sst>
 </file>
@@ -105,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -113,40 +103,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -182,7 +146,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -194,7 +158,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -241,6 +205,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -276,6 +257,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -427,116 +425,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72D4A6F-9ADD-4942-8153-DE6440529C0C}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{B475A4D8-E8E6-41DF-99FA-EA362F4D3207}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{A8DA37D0-54FA-4215-AC2E-69B3E62A2AF6}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{22E43B5F-BCF7-46FD-A5A6-1CBF4224C332}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{3527F2ED-A3DB-445E-A857-BA0BE892FBC2}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{560945EB-A935-476A-A5BC-C93874D06DEC}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{9DEC2527-6124-46F7-AB01-6FC954431B3F}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{38108334-3E02-4D4B-A9FC-F226F88EECB0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA5551F-F244-4CEC-869C-FF44973B810A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>